--- a/策划文档/数值用表/MAGIC_item.xlsx
+++ b/策划文档/数值用表/MAGIC_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,37 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天魔石Lv.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天魔石Lv.2</t>
-  </si>
-  <si>
-    <t>天魔石Lv.3</t>
-  </si>
-  <si>
-    <t>天魔石Lv.4</t>
-  </si>
-  <si>
-    <t>天魔石Lv.5</t>
-  </si>
-  <si>
-    <t>天魔石Lv.6</t>
-  </si>
-  <si>
-    <t>天魔石Lv.7</t>
-  </si>
-  <si>
-    <t>天魔石Lv.8</t>
-  </si>
-  <si>
-    <t>天魔石Lv.9</t>
-  </si>
-  <si>
-    <t>天魔石Lv.10</t>
-  </si>
-  <si>
     <t>天之能源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,18 +111,6 @@
     <t>五彩石(红)Lv.6</t>
   </si>
   <si>
-    <t>五彩石(红)Lv.7</t>
-  </si>
-  <si>
-    <t>五彩石(红)Lv.8</t>
-  </si>
-  <si>
-    <t>五彩石(红)Lv.9</t>
-  </si>
-  <si>
-    <t>五彩石(红)Lv.10</t>
-  </si>
-  <si>
     <t>五彩石(蓝)Lv.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,18 +130,6 @@
     <t>五彩石(蓝)Lv.6</t>
   </si>
   <si>
-    <t>五彩石(蓝)Lv.7</t>
-  </si>
-  <si>
-    <t>五彩石(蓝)Lv.8</t>
-  </si>
-  <si>
-    <t>五彩石(蓝)Lv.9</t>
-  </si>
-  <si>
-    <t>五彩石(蓝)Lv.10</t>
-  </si>
-  <si>
     <t>五彩石(黄)Lv.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,18 +149,6 @@
     <t>五彩石(黄)Lv.6</t>
   </si>
   <si>
-    <t>五彩石(黄)Lv.7</t>
-  </si>
-  <si>
-    <t>五彩石(黄)Lv.8</t>
-  </si>
-  <si>
-    <t>五彩石(黄)Lv.9</t>
-  </si>
-  <si>
-    <t>五彩石(黄)Lv.10</t>
-  </si>
-  <si>
     <t>五彩石(紫)Lv.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,18 +168,6 @@
     <t>五彩石(紫)Lv.6</t>
   </si>
   <si>
-    <t>五彩石(紫)Lv.7</t>
-  </si>
-  <si>
-    <t>五彩石(紫)Lv.8</t>
-  </si>
-  <si>
-    <t>五彩石(紫)Lv.9</t>
-  </si>
-  <si>
-    <t>五彩石(紫)Lv.10</t>
-  </si>
-  <si>
     <t>五彩石(绿)Lv.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,23 +187,23 @@
     <t>五彩石(绿)Lv.6</t>
   </si>
   <si>
-    <t>五彩石(绿)Lv.7</t>
-  </si>
-  <si>
-    <t>五彩石(绿)Lv.8</t>
-  </si>
-  <si>
-    <t>五彩石(绿)Lv.9</t>
-  </si>
-  <si>
-    <t>五彩石(绿)Lv.10</t>
-  </si>
-  <si>
     <t>英雄召唤石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超英雄召唤石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神戒(物)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神铠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,10 +564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -690,7 +611,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -698,7 +619,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -707,31 +628,31 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>2001</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>2002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>3001</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -739,7 +660,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>7</v>
+        <v>4001</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -747,7 +668,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>8</v>
+        <v>4002</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -755,7 +676,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>4003</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -763,7 +684,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>4004</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -771,7 +692,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>11</v>
+        <v>4005</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -779,7 +700,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>12</v>
+        <v>5001</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
@@ -787,7 +708,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>13</v>
+        <v>5002</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -795,7 +716,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>14</v>
+        <v>5003</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -803,7 +724,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>15</v>
+        <v>5004</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -811,7 +732,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>16</v>
+        <v>5005</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
@@ -819,87 +740,87 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
-        <v>17</v>
+        <v>6101</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>18</v>
+        <v>6102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>6103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>6104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>21</v>
+        <v>6105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>22</v>
+        <v>6106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>23</v>
+        <v>6201</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>24</v>
+        <v>6202</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>6203</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>26</v>
+        <v>6204</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>27</v>
+        <v>6205</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>29</v>
@@ -907,7 +828,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>28</v>
+        <v>6206</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>30</v>
@@ -915,7 +836,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>6301</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
@@ -923,7 +844,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>30</v>
+        <v>6302</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
@@ -931,7 +852,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>31</v>
+        <v>6303</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
@@ -939,7 +860,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>32</v>
+        <v>6304</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -947,7 +868,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>33</v>
+        <v>6305</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
@@ -955,7 +876,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>34</v>
+        <v>6306</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
@@ -963,7 +884,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>6401</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
@@ -971,7 +892,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>36</v>
+        <v>6402</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
@@ -979,7 +900,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>37</v>
+        <v>6403</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -987,7 +908,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>38</v>
+        <v>6404</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -995,7 +916,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>6405</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -1003,7 +924,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
-        <v>40</v>
+        <v>6406</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
@@ -1011,7 +932,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>41</v>
+        <v>6501</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
@@ -1019,7 +940,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>42</v>
+        <v>6502</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
@@ -1027,7 +948,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>43</v>
+        <v>6503</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -1035,7 +956,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>44</v>
+        <v>6504</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
@@ -1043,7 +964,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>6505</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
@@ -1051,7 +972,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>46</v>
+        <v>6506</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>48</v>
@@ -1059,242 +980,511 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>47</v>
+        <v>70010</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>70011</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>49</v>
+        <v>70012</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>50</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>52</v>
+        <v>70013</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>51</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>53</v>
+        <v>70014</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>52</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>54</v>
+        <v>70015</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>53</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>55</v>
+        <v>70016</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>54</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>70017</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>55</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
+        <v>70018</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>70019</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>57</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>70020</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>58</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
+        <v>70021</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>59</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>61</v>
+        <v>70022</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>60</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>62</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
-        <v>63</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
-        <v>64</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70027</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>65</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>66</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>67</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70030</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>68</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>69</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
-        <v>70</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70033</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
-        <v>71</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>72</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70035</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>73</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>74</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
-        <v>75</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+        <v>70038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
-        <v>76</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>70039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>70040</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>70041</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>70042</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>70043</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>70044</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>70045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>70046</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>70047</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>70048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>70049</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>70050</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>70051</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>70052</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>70053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>70054</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>70055</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>70056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>70057</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>70058</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>70059</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>80010</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>80011</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>80012</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>80013</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>80014</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>80015</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>80016</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>80017</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>80018</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>80019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>80020</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>80021</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>80022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>80023</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>80024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>80025</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>80026</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>80027</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>80028</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>80029</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>80030</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
+        <v>80031</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>80032</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>80033</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>80034</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>80035</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>80036</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>80037</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>80038</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>80039</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>80040</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>80041</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>80042</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>80043</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>80044</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>80045</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>80046</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>80047</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>80048</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>80049</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>80050</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>80051</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>80052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>80053</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>80054</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>80055</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>80056</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>80057</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>80058</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>80059</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/数值用表/MAGIC_item.xlsx
+++ b/策划文档/数值用表/MAGIC_item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="129">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,16 +195,242 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>土神剑</t>
+  </si>
+  <si>
+    <t>土神盔(物)</t>
+  </si>
+  <si>
+    <t>土神护腿(物)</t>
+  </si>
+  <si>
+    <t>土神戒(物)</t>
+  </si>
+  <si>
+    <t>土神甲</t>
+  </si>
+  <si>
+    <t>土神靴</t>
+  </si>
+  <si>
+    <t>土神杖</t>
+  </si>
+  <si>
+    <t>土神盔(法)</t>
+  </si>
+  <si>
+    <t>土神护腿(法)</t>
+  </si>
+  <si>
+    <t>土神戒(法)</t>
+  </si>
+  <si>
     <t>风神剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神盔(物)</t>
+  </si>
+  <si>
+    <t>风神护腿(物)</t>
   </si>
   <si>
     <t>风神戒(物)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风神铠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风神甲</t>
+  </si>
+  <si>
+    <t>风神靴</t>
+  </si>
+  <si>
+    <t>风神杖</t>
+  </si>
+  <si>
+    <t>风神盔(法)</t>
+  </si>
+  <si>
+    <t>风神护腿(法)</t>
+  </si>
+  <si>
+    <t>风神戒(法)</t>
+  </si>
+  <si>
+    <t>水神剑</t>
+  </si>
+  <si>
+    <t>水神盔(物)</t>
+  </si>
+  <si>
+    <t>水神护腿(物)</t>
+  </si>
+  <si>
+    <t>水神戒(物)</t>
+  </si>
+  <si>
+    <t>水神甲</t>
+  </si>
+  <si>
+    <t>水神靴</t>
+  </si>
+  <si>
+    <t>水神杖</t>
+  </si>
+  <si>
+    <t>水神盔(法)</t>
+  </si>
+  <si>
+    <t>水神护腿(法)</t>
+  </si>
+  <si>
+    <t>水神戒(法)</t>
+  </si>
+  <si>
+    <t>火神剑</t>
+  </si>
+  <si>
+    <t>火神盔(物)</t>
+  </si>
+  <si>
+    <t>火神护腿(物)</t>
+  </si>
+  <si>
+    <t>火神戒(物)</t>
+  </si>
+  <si>
+    <t>火神甲</t>
+  </si>
+  <si>
+    <t>火神靴</t>
+  </si>
+  <si>
+    <t>火神杖</t>
+  </si>
+  <si>
+    <t>火神盔(法)</t>
+  </si>
+  <si>
+    <t>火神护腿(法)</t>
+  </si>
+  <si>
+    <t>火神戒(法)</t>
+  </si>
+  <si>
+    <t>雷神剑</t>
+  </si>
+  <si>
+    <t>雷神盔(物)</t>
+  </si>
+  <si>
+    <t>雷神护腿(物)</t>
+  </si>
+  <si>
+    <t>雷神戒(物)</t>
+  </si>
+  <si>
+    <t>雷神甲</t>
+  </si>
+  <si>
+    <t>雷神靴</t>
+  </si>
+  <si>
+    <t>雷神杖</t>
+  </si>
+  <si>
+    <t>雷神盔(法)</t>
+  </si>
+  <si>
+    <t>雷神护腿(法)</t>
+  </si>
+  <si>
+    <t>雷神戒(法)</t>
+  </si>
+  <si>
+    <t>魄石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器进阶石(绿)</t>
+  </si>
+  <si>
+    <t>头盔进阶石(绿)</t>
+  </si>
+  <si>
+    <t>护腿进阶石(绿)</t>
+  </si>
+  <si>
+    <t>戒指进阶石(绿)</t>
+  </si>
+  <si>
+    <t>铠甲进阶石(绿)</t>
+  </si>
+  <si>
+    <t>靴子进阶石(绿)</t>
+  </si>
+  <si>
+    <t>武器进阶石(蓝)</t>
+  </si>
+  <si>
+    <t>头盔进阶石(蓝)</t>
+  </si>
+  <si>
+    <t>护腿进阶石(蓝)</t>
+  </si>
+  <si>
+    <t>戒指进阶石(蓝)</t>
+  </si>
+  <si>
+    <t>铠甲进阶石(蓝)</t>
+  </si>
+  <si>
+    <t>靴子进阶石(蓝)</t>
+  </si>
+  <si>
+    <t>武器进阶石(紫)</t>
+  </si>
+  <si>
+    <t>头盔进阶石(紫)</t>
+  </si>
+  <si>
+    <t>护腿进阶石(紫)</t>
+  </si>
+  <si>
+    <t>戒指进阶石(紫)</t>
+  </si>
+  <si>
+    <t>铠甲进阶石(紫)</t>
+  </si>
+  <si>
+    <t>靴子进阶石(紫)</t>
+  </si>
+  <si>
+    <t>武器进阶石(橙)</t>
+  </si>
+  <si>
+    <t>头盔进阶石(橙)</t>
+  </si>
+  <si>
+    <t>护腿进阶石(橙)</t>
+  </si>
+  <si>
+    <t>戒指进阶石(橙)</t>
+  </si>
+  <si>
+    <t>铠甲进阶石(橙)</t>
+  </si>
+  <si>
+    <t>靴子进阶石(橙)</t>
   </si>
 </sst>
 </file>
@@ -564,10 +790,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -980,511 +1206,626 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>70010</v>
+        <v>7001</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>70011</v>
+        <v>7002</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
-        <v>70012</v>
+        <v>7003</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>70013</v>
+        <v>7004</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>70014</v>
+        <v>8001</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
-        <v>70015</v>
+        <v>8002</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>70016</v>
+        <v>8003</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>70017</v>
+        <v>8004</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>70018</v>
+        <v>8005</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
-        <v>70019</v>
+        <v>8006</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>70020</v>
+        <v>8011</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>70021</v>
+        <v>8012</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>70022</v>
+        <v>8013</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
+        <v>8014</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>8015</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>8016</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>8021</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>8022</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>8023</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>8024</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>8025</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>8026</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>8031</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>8032</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>8033</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>8034</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>8035</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>8036</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>70010</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>70011</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>70012</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>70013</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>70014</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>70015</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>70016</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>70017</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>70018</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>70019</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>70020</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>70021</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>70022</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
         <v>70023</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
+      <c r="B92" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
         <v>70024</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" s="1">
+      <c r="B93" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
         <v>70025</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" s="1">
+      <c r="B94" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
         <v>70026</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" s="1">
+      <c r="B95" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
         <v>70027</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" s="1">
+      <c r="B96" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
         <v>70028</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" s="1">
+      <c r="B97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
         <v>70029</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" s="1">
+      <c r="B98" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
         <v>70030</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="1">
+      <c r="B99" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
         <v>70031</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="1">
+      <c r="B100" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
         <v>70032</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="1">
+      <c r="B101" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
         <v>70033</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="1">
+      <c r="B102" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
         <v>70034</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="1">
+      <c r="B103" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
         <v>70035</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" s="1">
+      <c r="B104" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
         <v>70036</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" s="1">
+      <c r="B105" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
         <v>70037</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="1">
+      <c r="B106" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
         <v>70038</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="1">
+      <c r="B107" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
         <v>70039</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A81" s="1">
+      <c r="B108" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
         <v>70040</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A82" s="1">
+      <c r="B109" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
         <v>70041</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A83" s="1">
+      <c r="B110" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
         <v>70042</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+      <c r="B111" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
         <v>70043</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A85" s="1">
+      <c r="B112" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
         <v>70044</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A86" s="1">
+      <c r="B113" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
         <v>70045</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A87" s="1">
+      <c r="B114" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
         <v>70046</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A88" s="1">
+      <c r="B115" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
         <v>70047</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A89" s="1">
+      <c r="B116" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
         <v>70048</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A90" s="1">
+      <c r="B117" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
         <v>70049</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A91" s="1">
+      <c r="B118" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
         <v>70050</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A92" s="1">
+      <c r="B119" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
         <v>70051</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A93" s="1">
+      <c r="B120" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
         <v>70052</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A94" s="1">
+      <c r="B121" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="1">
         <v>70053</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A95" s="1">
+      <c r="B122" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
         <v>70054</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A96" s="1">
+      <c r="B123" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
         <v>70055</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="1">
+      <c r="B124" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
         <v>70056</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="1">
+      <c r="B125" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
         <v>70057</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="1">
+      <c r="B126" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
         <v>70058</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="1">
+      <c r="B127" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
         <v>70059</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="1">
-        <v>80010</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="1">
-        <v>80011</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="1">
-        <v>80012</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="1">
-        <v>80013</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="1">
-        <v>80014</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="1">
-        <v>80015</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="1">
-        <v>80016</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="1">
-        <v>80017</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="1">
-        <v>80018</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="1">
-        <v>80019</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="1">
-        <v>80020</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A112" s="1">
-        <v>80021</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" s="1">
-        <v>80022</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" s="1">
-        <v>80023</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" s="1">
-        <v>80024</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" s="1">
-        <v>80025</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A117" s="1">
-        <v>80026</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A118" s="1">
-        <v>80027</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A119" s="1">
-        <v>80028</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A120" s="1">
-        <v>80029</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1">
-        <v>80030</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A122" s="1">
-        <v>80031</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A123" s="1">
-        <v>80032</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A124" s="1">
-        <v>80033</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A125" s="1">
-        <v>80034</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A126" s="1">
-        <v>80035</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A127" s="1">
-        <v>80036</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A128" s="1">
-        <v>80037</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A129" s="1">
-        <v>80038</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A130" s="1">
-        <v>80039</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A131" s="1">
-        <v>80040</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A132" s="1">
-        <v>80041</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A133" s="1">
-        <v>80042</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A134" s="1">
-        <v>80043</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A135" s="1">
-        <v>80044</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A136" s="1">
-        <v>80045</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A137" s="1">
-        <v>80046</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A138" s="1">
-        <v>80047</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A139" s="1">
-        <v>80048</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A140" s="1">
-        <v>80049</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A141" s="1">
-        <v>80050</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A142" s="1">
-        <v>80051</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A143" s="1">
-        <v>80052</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A144" s="1">
-        <v>80053</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145" s="1">
-        <v>80054</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" s="1">
-        <v>80055</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A147" s="1">
-        <v>80056</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" s="1">
-        <v>80057</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A149" s="1">
-        <v>80058</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" s="1">
-        <v>80059</v>
+      <c r="B128" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
